--- a/P11/docs/MASS_Scrum.xlsx
+++ b/P11/docs/MASS_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P10\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P11\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6B61B-7DB0-4344-9D3E-22EAA9C811E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC11695-E159-4009-8DFD-D7DEF5B9A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="210">
   <si>
     <t>Product Name:</t>
   </si>
@@ -617,9 +617,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>--&gt; Add tasks to complete each feature for this sprint</t>
-  </si>
-  <si>
     <t>Bipin Shrestha</t>
   </si>
   <si>
@@ -789,6 +786,33 @@
   </si>
   <si>
     <t>Make new animal and use the genric method to create it</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 5</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>Requires Shelter.adopted HashMap&lt;Animal, Client&gt;</t>
+  </si>
+  <si>
+    <t>new dialogs</t>
+  </si>
+  <si>
+    <t>override the hascode and .equal</t>
+  </si>
+  <si>
+    <t>Iterate over for dialog</t>
+  </si>
+  <si>
+    <t>and 1 dialog to select the animal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires 1 dialog to select the client  </t>
+  </si>
+  <si>
+    <t>Mass.onListAdoptedClick</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1333,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,28 +2872,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,8 +3637,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3656,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -3702,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -3710,7 +3734,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" s="5">
         <v>1001841216</v>
@@ -3896,11 +3920,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
@@ -3916,11 +3940,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="2"/>
@@ -4049,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>31</v>
@@ -4082,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>36</v>
@@ -4115,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
@@ -4132,7 +4156,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6">
       <c r="A27" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="15">
         <v>4</v>
@@ -4148,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>36</v>
@@ -4181,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>31</v>
@@ -4214,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>31</v>
@@ -4247,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>31</v>
@@ -4280,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>31</v>
@@ -4313,7 +4337,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>36</v>
@@ -4330,7 +4354,7 @@
     </row>
     <row r="33" spans="1:1024" ht="28.8">
       <c r="A33" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="21">
         <v>10</v>
@@ -4346,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>36</v>
@@ -4379,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>36</v>
@@ -4412,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>73</v>
@@ -4445,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>73</v>
@@ -4478,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>81</v>
@@ -4511,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>81</v>
@@ -4544,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>81</v>
@@ -4577,7 +4601,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>36</v>
@@ -5622,7 +5646,9 @@
       <c r="F41" s="16">
         <v>5</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23" t="s">
         <v>98</v>
@@ -6665,7 +6691,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>36</v>
@@ -6698,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>106</v>
@@ -6728,7 +6754,9 @@
         <v>13</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="H44" s="17" t="s">
         <v>106</v>
       </c>
@@ -6757,7 +6785,9 @@
         <v>8</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="H45" s="17" t="s">
         <v>36</v>
       </c>
@@ -7565,7 +7595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -7842,10 +7872,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>148</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7856,10 +7886,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7867,13 +7897,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>151</v>
-      </c>
       <c r="E19" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7884,10 +7914,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8861,10 +8891,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8875,10 +8905,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8889,10 +8919,10 @@
         <v>47</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8903,10 +8933,10 @@
         <v>47</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8917,10 +8947,10 @@
         <v>62</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8931,10 +8961,10 @@
         <v>62</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8945,10 +8975,10 @@
         <v>62</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8959,10 +8989,10 @@
         <v>62</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8973,10 +9003,10 @@
         <v>62</v>
       </c>
       <c r="D25" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8984,13 +9014,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8998,13 +9028,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9012,13 +9042,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9026,13 +9056,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9040,13 +9070,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9057,10 +9087,10 @@
         <v>59</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9071,10 +9101,10 @@
         <v>55</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9085,10 +9115,10 @@
         <v>55</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9958,10 +9988,10 @@
         <v>72</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9972,10 +10002,10 @@
         <v>72</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9986,10 +10016,10 @@
         <v>72</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9997,13 +10027,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>173</v>
-      </c>
       <c r="E20" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10014,10 +10044,10 @@
         <v>77</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10028,10 +10058,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10042,10 +10072,10 @@
         <v>77</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10056,10 +10086,10 @@
         <v>77</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10070,10 +10100,10 @@
         <v>85</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10084,10 +10114,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10098,10 +10128,10 @@
         <v>85</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10115,7 +10145,7 @@
         <v>92</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11024,10 +11054,10 @@
         <v>106</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11038,10 +11068,10 @@
         <v>106</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11052,10 +11082,10 @@
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11066,10 +11096,10 @@
         <v>106</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11080,10 +11110,10 @@
         <v>106</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11094,10 +11124,10 @@
         <v>106</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11108,10 +11138,10 @@
         <v>106</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11119,13 +11149,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>194</v>
-      </c>
       <c r="E24" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11133,13 +11163,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>195</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11147,13 +11177,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>198</v>
-      </c>
       <c r="E26" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11161,13 +11191,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11175,13 +11205,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11189,13 +11219,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11818,8 +11848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -11924,7 +11954,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -11939,7 +11969,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -11957,7 +11987,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -11975,7 +12005,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -11993,7 +12023,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -12011,7 +12041,7 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -12029,11 +12059,11 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -12047,11 +12077,11 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -12093,75 +12123,123 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="41"/>
+        <v>203</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="41" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="41" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -12803,7 +12881,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
+          <xm:sqref>B19:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
